--- a/src/predicciones/holt_winters/producto_30.xlsx
+++ b/src/predicciones/holt_winters/producto_30.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,8 +404,8 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44933</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -403,8 +415,8 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44935</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -414,8 +426,8 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44942</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -425,8 +437,8 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44945</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -436,8 +448,8 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44947</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -447,8 +459,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44956</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -458,8 +470,8 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44968</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -469,8 +481,8 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44969</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -480,8 +492,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44972</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -491,8 +503,8 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44982</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -502,8 +514,8 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44999</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -513,8 +525,8 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>45000</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -524,8 +536,8 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>45003</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -535,8 +547,8 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>45006</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -546,8 +558,8 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>45013</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -557,8 +569,8 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>45016</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -568,8 +580,8 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>45030</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -579,8 +591,8 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>45032</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -590,8 +602,8 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>45042</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -601,8 +613,8 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45051</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -612,8 +624,8 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45055</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -623,8 +635,8 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45062</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -634,8 +646,8 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45090</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -645,8 +657,8 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45120</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -656,8 +668,8 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45129</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -667,8 +679,8 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45138</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -678,8 +690,8 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45151</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -689,8 +701,8 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45170</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -700,8 +712,8 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45174</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -711,8 +723,8 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45175</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -722,8 +734,8 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45177</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -733,8 +745,8 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45182</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -744,8 +756,8 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45184</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -755,8 +767,8 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45185</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -766,8 +778,8 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45191</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -777,8 +789,8 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45194</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -788,8 +800,8 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45206</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -799,8 +811,8 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45209</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -810,8 +822,8 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45210</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -821,8 +833,8 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45211</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -832,8 +844,8 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45222</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -843,8 +855,8 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45227</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -854,8 +866,8 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45243</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -865,8 +877,8 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45248</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -876,8 +888,8 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45250</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -887,8 +899,8 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45251</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -898,8 +910,8 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45279</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -909,8 +921,8 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45296</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -920,8 +932,8 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45298</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -931,8 +943,8 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45305</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -942,8 +954,8 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45307</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -953,8 +965,8 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45308</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -964,8 +976,8 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45311</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -975,8 +987,8 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45316</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -986,8 +998,8 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45329</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -997,8 +1009,8 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45333</v>
       </c>
       <c r="B57">
         <v>1</v>

--- a/src/predicciones/holt_winters/producto_30.xlsx
+++ b/src/predicciones/holt_winters/producto_30.xlsx
@@ -14,7 +14,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>Periodo 1</t>
+  </si>
+  <si>
+    <t>Periodo 2</t>
+  </si>
+  <si>
+    <t>Periodo 3</t>
+  </si>
+  <si>
+    <t>Periodo 4</t>
+  </si>
+  <si>
+    <t>Periodo 5</t>
+  </si>
+  <si>
+    <t>Periodo 6</t>
+  </si>
+  <si>
+    <t>Periodo 7</t>
+  </si>
+  <si>
+    <t>Periodo 8</t>
+  </si>
+  <si>
+    <t>Periodo 9</t>
+  </si>
+  <si>
+    <t>Periodo 10</t>
+  </si>
+  <si>
+    <t>Periodo 11</t>
+  </si>
+  <si>
+    <t>Periodo 12</t>
+  </si>
+  <si>
+    <t>Periodo 13</t>
+  </si>
+  <si>
+    <t>Periodo 14</t>
+  </si>
+  <si>
+    <t>Periodo 15</t>
+  </si>
+  <si>
+    <t>Periodo 16</t>
+  </si>
+  <si>
+    <t>Periodo 17</t>
+  </si>
+  <si>
+    <t>Periodo 18</t>
+  </si>
+  <si>
+    <t>Periodo 19</t>
+  </si>
+  <si>
+    <t>Periodo 20</t>
+  </si>
+  <si>
+    <t>Periodo 21</t>
+  </si>
+  <si>
+    <t>Periodo 22</t>
+  </si>
+  <si>
+    <t>Periodo 23</t>
+  </si>
+  <si>
+    <t>Periodo 24</t>
+  </si>
+  <si>
+    <t>Periodo 25</t>
+  </si>
+  <si>
+    <t>Periodo 26</t>
+  </si>
+  <si>
+    <t>Periodo 27</t>
+  </si>
+  <si>
+    <t>Periodo 28</t>
+  </si>
+  <si>
+    <t>Periodo 29</t>
+  </si>
+  <si>
+    <t>Periodo 30</t>
+  </si>
   <si>
     <t>predicciones</t>
   </si>
@@ -89,9 +179,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,26 +474,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:34">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
-        <v>44933</v>
+    <row r="2" spans="1:34">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -413,10 +591,103 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>44931</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
-        <v>44935</v>
+    <row r="3" spans="1:34">
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -424,10 +695,103 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>44962</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>44942</v>
+    <row r="4" spans="1:34">
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -435,10 +799,103 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>44968</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>44945</v>
+    <row r="5" spans="1:34">
+      <c r="A5" s="1">
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -446,10 +903,103 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>44977</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>44947</v>
+    <row r="6" spans="1:34">
+      <c r="A6" s="1">
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -457,10 +1007,103 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>44979</v>
+      </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>44956</v>
+    <row r="7" spans="1:34">
+      <c r="A7" s="1">
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -468,10 +1111,103 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>45002</v>
+      </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>44968</v>
+    <row r="8" spans="1:34">
+      <c r="A8" s="1">
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -479,10 +1215,103 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>45006</v>
+      </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>44969</v>
+    <row r="9" spans="1:34">
+      <c r="A9" s="1">
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -490,10 +1319,103 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>45033</v>
+      </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>44972</v>
+    <row r="10" spans="1:34">
+      <c r="A10" s="1">
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -501,10 +1423,103 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>45042</v>
+      </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>44982</v>
+    <row r="11" spans="1:34">
+      <c r="A11" s="1">
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -512,10 +1527,103 @@
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>45049</v>
+      </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>44999</v>
+    <row r="12" spans="1:34">
+      <c r="A12" s="1">
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -523,10 +1631,103 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>45053</v>
+      </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>45000</v>
+    <row r="13" spans="1:34">
+      <c r="A13" s="1">
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -534,10 +1735,103 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>45056</v>
+      </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>45003</v>
+    <row r="14" spans="1:34">
+      <c r="A14" s="1">
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -545,10 +1839,103 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>45063</v>
+      </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>45006</v>
+    <row r="15" spans="1:34">
+      <c r="A15" s="1">
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -556,10 +1943,103 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>45065</v>
+      </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>45013</v>
+    <row r="16" spans="1:34">
+      <c r="A16" s="1">
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -567,10 +2047,103 @@
       <c r="C16">
         <v>1</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>45066</v>
+      </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
-        <v>45016</v>
+    <row r="17" spans="1:34">
+      <c r="A17" s="1">
+        <v>15</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -578,10 +2151,103 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>45072</v>
+      </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
-        <v>45030</v>
+    <row r="18" spans="1:34">
+      <c r="A18" s="1">
+        <v>16</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -589,10 +2255,103 @@
       <c r="C18">
         <v>1</v>
       </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>45077</v>
+      </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
-        <v>45032</v>
+    <row r="19" spans="1:34">
+      <c r="A19" s="1">
+        <v>17</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -600,10 +2359,103 @@
       <c r="C19">
         <v>1</v>
       </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>45097</v>
+      </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
-        <v>45042</v>
+    <row r="20" spans="1:34">
+      <c r="A20" s="1">
+        <v>18</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -611,10 +2463,103 @@
       <c r="C20">
         <v>1</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>45115</v>
+      </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
-        <v>45051</v>
+    <row r="21" spans="1:34">
+      <c r="A21" s="1">
+        <v>19</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -622,10 +2567,103 @@
       <c r="C21">
         <v>1</v>
       </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>45150</v>
+      </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2">
-        <v>45055</v>
+    <row r="22" spans="1:34">
+      <c r="A22" s="1">
+        <v>20</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -633,10 +2671,103 @@
       <c r="C22">
         <v>1</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>45159</v>
+      </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2">
-        <v>45062</v>
+    <row r="23" spans="1:34">
+      <c r="A23" s="1">
+        <v>21</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -644,10 +2775,103 @@
       <c r="C23">
         <v>1</v>
       </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>45165</v>
+      </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2">
-        <v>45090</v>
+    <row r="24" spans="1:34">
+      <c r="A24" s="1">
+        <v>22</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -655,10 +2879,103 @@
       <c r="C24">
         <v>1</v>
       </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>45167</v>
+      </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2">
-        <v>45120</v>
+    <row r="25" spans="1:34">
+      <c r="A25" s="1">
+        <v>23</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -666,10 +2983,103 @@
       <c r="C25">
         <v>1</v>
       </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>1</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>45180</v>
+      </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2">
-        <v>45129</v>
+    <row r="26" spans="1:34">
+      <c r="A26" s="1">
+        <v>24</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -677,10 +3087,103 @@
       <c r="C26">
         <v>1</v>
       </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="2">
+        <v>45214</v>
+      </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2">
-        <v>45138</v>
+    <row r="27" spans="1:34">
+      <c r="A27" s="1">
+        <v>25</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -688,10 +3191,103 @@
       <c r="C27">
         <v>1</v>
       </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <v>1</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="2">
+        <v>45217</v>
+      </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2">
-        <v>45151</v>
+    <row r="28" spans="1:34">
+      <c r="A28" s="1">
+        <v>26</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -699,10 +3295,103 @@
       <c r="C28">
         <v>1</v>
       </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>45218</v>
+      </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2">
-        <v>45170</v>
+    <row r="29" spans="1:34">
+      <c r="A29" s="1">
+        <v>27</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -710,10 +3399,103 @@
       <c r="C29">
         <v>1</v>
       </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="2">
+        <v>45222</v>
+      </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2">
-        <v>45174</v>
+    <row r="30" spans="1:34">
+      <c r="A30" s="1">
+        <v>28</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -721,10 +3503,103 @@
       <c r="C30">
         <v>1</v>
       </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>1</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="2">
+        <v>45237</v>
+      </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
-        <v>45175</v>
+    <row r="31" spans="1:34">
+      <c r="A31" s="1">
+        <v>29</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -732,10 +3607,103 @@
       <c r="C31">
         <v>1</v>
       </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="2">
+        <v>45240</v>
+      </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2">
-        <v>45177</v>
+    <row r="32" spans="1:34">
+      <c r="A32" s="1">
+        <v>30</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -743,10 +3711,103 @@
       <c r="C32">
         <v>1</v>
       </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>45256</v>
+      </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>45182</v>
+    <row r="33" spans="1:34">
+      <c r="A33" s="1">
+        <v>31</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -754,10 +3815,103 @@
       <c r="C33">
         <v>1</v>
       </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>1</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="2">
+        <v>45261</v>
+      </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>45184</v>
+    <row r="34" spans="1:34">
+      <c r="A34" s="1">
+        <v>32</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -765,258 +3919,98 @@
       <c r="C34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>45185</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>45191</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>45194</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
-        <v>45206</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
-        <v>45209</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2">
-        <v>45210</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2">
-        <v>45211</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
-        <v>45222</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
-        <v>45227</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2">
-        <v>45243</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2">
-        <v>45248</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2">
-        <v>45250</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2">
-        <v>45251</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2">
-        <v>45279</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2">
-        <v>45296</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2">
-        <v>45298</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2">
-        <v>45305</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2">
-        <v>45307</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2">
-        <v>45308</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2">
-        <v>45311</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2">
-        <v>45316</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2">
-        <v>45329</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2">
-        <v>45333</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34">
+        <v>1</v>
+      </c>
+      <c r="AC34">
+        <v>1</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>1</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="2">
+        <v>45294</v>
       </c>
     </row>
   </sheetData>
